--- a/st00.docs/html&css정리.20190420.xlsx
+++ b/st00.docs/html&css정리.20190420.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="428">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1831,6 +1831,115 @@
     <t xml:space="preserve">정수값(0 : 기본값) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배수를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾아라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P태그 중에 name 이라는 속성이 있으면.. 이라는 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1839,7 +1948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,8 +2094,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,6 +2135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,7 +2297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2330,6 +2451,99 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2342,160 +2556,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3206,21 +3330,21 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="41" t="s">
         <v>84</v>
       </c>
@@ -3231,7 +3355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
         <v>89</v>
       </c>
@@ -3240,28 +3364,28 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="44"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
         <v>104</v>
       </c>
@@ -3272,8 +3396,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="82" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3283,8 +3407,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="83"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -3292,8 +3416,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="84"/>
       <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
@@ -3301,8 +3425,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:3" ht="49.5">
+      <c r="A13" s="85" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3312,8 +3436,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:3" ht="49.5">
+      <c r="A14" s="84"/>
       <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
@@ -3321,7 +3445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="82.5">
       <c r="A15" s="46" t="s">
         <v>1</v>
       </c>
@@ -3332,7 +3456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="46" t="s">
         <v>120</v>
       </c>
@@ -3343,7 +3467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="33">
       <c r="A17" s="46" t="s">
         <v>2</v>
       </c>
@@ -3354,8 +3478,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="85" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -3365,8 +3489,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="84"/>
       <c r="B19" s="40" t="s">
         <v>112</v>
       </c>
@@ -3374,29 +3498,29 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
       <c r="A20" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="85" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
       <c r="A21" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="84"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+    <row r="22" spans="1:7" ht="33">
+      <c r="A22" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3406,8 +3530,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="84"/>
       <c r="B23" s="45" t="s">
         <v>101</v>
       </c>
@@ -3415,8 +3539,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="85" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3426,8 +3550,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="83"/>
       <c r="B25" s="14" t="s">
         <v>96</v>
       </c>
@@ -3435,8 +3559,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="83"/>
       <c r="B26" s="14" t="s">
         <v>97</v>
       </c>
@@ -3444,8 +3568,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="83"/>
       <c r="B27" s="14" t="s">
         <v>126</v>
       </c>
@@ -3453,8 +3577,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="83"/>
       <c r="B28" s="14" t="s">
         <v>98</v>
       </c>
@@ -3462,8 +3586,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="84"/>
       <c r="B29" s="14" t="s">
         <v>99</v>
       </c>
@@ -3488,567 +3612,567 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D55"/>
+  <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" style="64" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="86.625" style="64"/>
+    <col min="1" max="1" width="20.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.25" style="51" customWidth="1"/>
+    <col min="4" max="4" width="66.375" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="86.625" style="51"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="53" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="53" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="81" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="81" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="53" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="66" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="53" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="53" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="73" t="s">
+      <c r="E12" s="51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="90"/>
+      <c r="B13" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="53" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="90"/>
+      <c r="B14" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="66" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="90"/>
+      <c r="B15" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="53" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="74" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="90"/>
+      <c r="B16" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="86" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="66" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="90"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="74"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="74" t="s">
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="90"/>
+      <c r="B18" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="86" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="66" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="90"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="74" t="s">
+      <c r="D19" s="86"/>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="90"/>
+      <c r="B20" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="86" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="66" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="91"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="74"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="D21" s="86"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="79"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="79"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="66" t="s">
+      <c r="D32" s="88"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="86"/>
+      <c r="B34" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="66" t="s">
+      <c r="D34" s="56"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="86"/>
+      <c r="B35" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="78" t="s">
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="86"/>
+      <c r="B36" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="72"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="72"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="73" t="s">
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="86"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="86"/>
+      <c r="B38" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="73" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="86"/>
+      <c r="B39" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="66" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="86"/>
+      <c r="B40" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="66" t="s">
+      <c r="C40" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="86"/>
+      <c r="B41" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="66" t="s">
+      <c r="D41" s="56"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="86"/>
+      <c r="B42" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="73" t="s">
+      <c r="D42" s="56"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="86"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="86"/>
+      <c r="B44" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="86"/>
+      <c r="B45" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="73" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="86"/>
+      <c r="B46" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
-      <c r="B47" s="73" t="s">
+      <c r="D46" s="56"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="86"/>
+      <c r="B47" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="71" t="s">
+      <c r="D47" s="56"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="55" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="53" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="90"/>
+      <c r="B52" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="66" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="90"/>
+      <c r="B53" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="66" t="s">
+      <c r="D53" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="68"/>
-      <c r="B54" s="66" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="90"/>
+      <c r="B54" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="66" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="91"/>
+      <c r="B55" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="53" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A32:A47"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4059,6 +4183,11 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A32:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4070,11 +4199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
@@ -4085,68 +4214,68 @@
     <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="24"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="93" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="78" t="s">
         <v>419</v>
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="94"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="78" t="s">
         <v>419</v>
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="79" t="s">
         <v>417</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55"/>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="94"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="71" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="55"/>
+    <row r="6" spans="1:8" ht="42.75">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="16" t="s">
         <v>412</v>
       </c>
@@ -4157,9 +4286,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:8" ht="57">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>409</v>
       </c>
@@ -4170,9 +4299,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="5" t="s">
         <v>406</v>
       </c>
@@ -4181,9 +4310,9 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="1:8" ht="57">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96" t="s">
         <v>404</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4198,9 +4327,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
+    <row r="10" spans="1:8" ht="57">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="19" t="s">
         <v>400</v>
       </c>
@@ -4213,9 +4342,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:8" ht="42.75">
+      <c r="A11" s="94"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="19" t="s">
         <v>397</v>
       </c>
@@ -4228,9 +4357,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="94"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4" t="s">
         <v>394</v>
       </c>
@@ -4241,9 +4370,9 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="94"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -4254,9 +4383,9 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="19" t="s">
         <v>391</v>
       </c>
@@ -4269,9 +4398,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="94"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="5" t="s">
         <v>388</v>
       </c>
@@ -4282,9 +4411,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="55"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="94"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>386</v>
       </c>
@@ -4295,9 +4424,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="94"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="5" t="s">
         <v>384</v>
       </c>
@@ -4308,40 +4437,40 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
+    <row r="18" spans="1:5" ht="28.5">
+      <c r="A18" s="94"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="71" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="94"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="94"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="7" t="s">
         <v>378</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" s="94"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
@@ -4352,9 +4481,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55" t="s">
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="94"/>
+      <c r="B22" s="96" t="s">
         <v>375</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -4367,9 +4496,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55"/>
+    <row r="23" spans="1:5" ht="28.5">
+      <c r="A23" s="94"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="5" t="s">
         <v>371</v>
       </c>
@@ -4380,9 +4509,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="A24" s="94"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="5" t="s">
         <v>368</v>
       </c>
@@ -4393,27 +4522,27 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="71" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
-    </row>
-    <row r="27" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="73"/>
+    </row>
+    <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="49"/>
       <c r="B27" s="49" t="s">
         <v>362</v>
@@ -4422,11 +4551,11 @@
       <c r="D27" s="27"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:5" ht="57">
+      <c r="A28" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="97" t="s">
         <v>360</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4439,9 +4568,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+    <row r="29" spans="1:5" ht="42.75">
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="5" t="s">
         <v>356</v>
       </c>
@@ -4452,9 +4581,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="5" t="s">
         <v>353</v>
       </c>
@@ -4463,31 +4592,31 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="96" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="102" t="s">
         <v>350</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="93" t="s">
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="71" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="5" t="s">
         <v>347</v>
       </c>
@@ -4496,9 +4625,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="5" t="s">
         <v>345</v>
       </c>
@@ -4507,9 +4636,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="5" t="s">
         <v>343</v>
       </c>
@@ -4518,9 +4647,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="5" t="s">
         <v>341</v>
       </c>
@@ -4529,22 +4658,22 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="120" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D37" s="94" t="s">
+      <c r="D37" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="71" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="5" t="s">
         <v>336</v>
       </c>
@@ -4553,44 +4682,44 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
+    <row r="40" spans="1:5" ht="28.5">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="D40" s="94" t="s">
+      <c r="D40" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="71" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
+    <row r="41" spans="1:5" ht="42.75">
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+    <row r="42" spans="1:5" ht="28.5">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="5" t="s">
         <v>327</v>
       </c>
@@ -4599,9 +4728,9 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="60" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="96"/>
+      <c r="B43" s="97" t="s">
         <v>325</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4612,9 +4741,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="5" t="s">
         <v>322</v>
       </c>
@@ -4623,9 +4752,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="5" t="s">
         <v>320</v>
       </c>
@@ -4634,9 +4763,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="5" t="s">
         <v>318</v>
       </c>
@@ -4645,9 +4774,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+    <row r="47" spans="1:5" ht="42.75">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="16" t="s">
         <v>316</v>
       </c>
@@ -4656,9 +4785,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="60" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="96"/>
+      <c r="B48" s="97" t="s">
         <v>314</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4669,9 +4798,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -4680,9 +4809,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -4691,9 +4820,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -4702,9 +4831,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
+    <row r="52" spans="1:5" ht="42.75">
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>309</v>
       </c>
@@ -4713,9 +4842,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55" t="s">
+    <row r="53" spans="1:5" ht="28.5">
+      <c r="A53" s="96"/>
+      <c r="B53" s="96" t="s">
         <v>307</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -4728,9 +4857,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="96"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="16" t="s">
         <v>304</v>
       </c>
@@ -4741,9 +4870,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="5" t="s">
         <v>301</v>
       </c>
@@ -4752,9 +4881,9 @@
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55" t="s">
+    <row r="56" spans="1:5" ht="28.5">
+      <c r="A56" s="96"/>
+      <c r="B56" s="96" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -4767,9 +4896,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="16" t="s">
         <v>296</v>
       </c>
@@ -4780,9 +4909,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="5" t="s">
         <v>293</v>
       </c>
@@ -4791,18 +4920,18 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="24"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="A60" s="56" t="s">
+    <row r="60" spans="1:5" ht="99.75">
+      <c r="A60" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="70" t="s">
         <v>290</v>
       </c>
       <c r="C60" s="18" t="s">
@@ -4815,9 +4944,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
-      <c r="B61" s="55" t="s">
+    <row r="61" spans="1:5" ht="57">
+      <c r="A61" s="94"/>
+      <c r="B61" s="96" t="s">
         <v>286</v>
       </c>
       <c r="C61" s="18" t="s">
@@ -4830,9 +4959,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="55"/>
+    <row r="62" spans="1:5" ht="42.75">
+      <c r="A62" s="94"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="5" t="s">
         <v>282</v>
       </c>
@@ -4843,9 +4972,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="55"/>
+    <row r="63" spans="1:5" ht="42.75">
+      <c r="A63" s="94"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="34" t="s">
         <v>279</v>
       </c>
@@ -4856,9 +4985,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A64" s="58"/>
-      <c r="B64" s="55"/>
+    <row r="64" spans="1:5" ht="42.75">
+      <c r="A64" s="94"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="5" t="s">
         <v>276</v>
       </c>
@@ -4869,9 +4998,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A65" s="58"/>
-      <c r="B65" s="55"/>
+    <row r="65" spans="1:5" ht="57">
+      <c r="A65" s="94"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="34" t="s">
         <v>273</v>
       </c>
@@ -4882,9 +5011,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
-      <c r="B66" s="55"/>
+    <row r="66" spans="1:5" ht="28.5">
+      <c r="A66" s="94"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="5" t="s">
         <v>270</v>
       </c>
@@ -4893,9 +5022,9 @@
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A67" s="58"/>
-      <c r="B67" s="55"/>
+    <row r="67" spans="1:5" ht="42.75">
+      <c r="A67" s="94"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="5" t="s">
         <v>268</v>
       </c>
@@ -4906,9 +5035,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
-      <c r="B68" s="55"/>
+    <row r="68" spans="1:5" ht="42.75">
+      <c r="A68" s="94"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="34" t="s">
         <v>265</v>
       </c>
@@ -4919,9 +5048,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.3">
-      <c r="A69" s="59"/>
-      <c r="B69" s="55"/>
+    <row r="69" spans="1:5" ht="71.25">
+      <c r="A69" s="95"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="33" t="s">
         <v>262</v>
       </c>
@@ -4932,25 +5061,25 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="91"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="69"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="88"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="68"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="66"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="31"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A72" s="87" t="s">
+    <row r="72" spans="1:5" ht="42.75">
+      <c r="A72" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="103" t="s">
         <v>258</v>
       </c>
       <c r="C72" s="34" t="s">
@@ -4961,9 +5090,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A73" s="86"/>
-      <c r="B73" s="58"/>
+    <row r="73" spans="1:5" ht="57">
+      <c r="A73" s="99"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="34" t="s">
         <v>255</v>
       </c>
@@ -4974,9 +5103,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
-      <c r="B74" s="58"/>
+    <row r="74" spans="1:5">
+      <c r="A74" s="99"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="34" t="s">
         <v>252</v>
       </c>
@@ -4985,9 +5114,9 @@
       </c>
       <c r="E74" s="34"/>
     </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
-      <c r="B75" s="58"/>
+    <row r="75" spans="1:5" ht="57">
+      <c r="A75" s="99"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="34" t="s">
         <v>250</v>
       </c>
@@ -4998,9 +5127,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
-      <c r="B76" s="58"/>
+    <row r="76" spans="1:5" ht="28.5">
+      <c r="A76" s="99"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="4" t="s">
         <v>247</v>
       </c>
@@ -5011,9 +5140,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
-      <c r="B77" s="58"/>
+    <row r="77" spans="1:5" ht="28.5">
+      <c r="A77" s="99"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="4" t="s">
         <v>244</v>
       </c>
@@ -5022,9 +5151,9 @@
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
-      <c r="B78" s="58"/>
+    <row r="78" spans="1:5" ht="57">
+      <c r="A78" s="99"/>
+      <c r="B78" s="94"/>
       <c r="C78" s="33" t="s">
         <v>242</v>
       </c>
@@ -5035,9 +5164,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
-      <c r="B79" s="58"/>
+    <row r="79" spans="1:5" ht="42.75">
+      <c r="A79" s="99"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="4" t="s">
         <v>239</v>
       </c>
@@ -5048,9 +5177,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
-      <c r="B80" s="58"/>
+    <row r="80" spans="1:5" ht="28.5">
+      <c r="A80" s="99"/>
+      <c r="B80" s="94"/>
       <c r="C80" s="33" t="s">
         <v>236</v>
       </c>
@@ -5059,9 +5188,9 @@
       </c>
       <c r="E80" s="34"/>
     </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
-      <c r="B81" s="59"/>
+    <row r="81" spans="1:5" ht="57">
+      <c r="A81" s="100"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="4" t="s">
         <v>234</v>
       </c>
@@ -5074,13 +5203,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5090,6 +5212,13 @@
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B61:B69"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,18 +5231,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -5124,8 +5253,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -5135,8 +5264,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="106"/>
       <c r="B3" s="50" t="s">
         <v>21</v>
       </c>
@@ -5144,8 +5273,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="106" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="50" t="s">
@@ -5155,8 +5284,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="106"/>
       <c r="B5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5164,8 +5293,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="106"/>
       <c r="B6" s="50" t="s">
         <v>29</v>
       </c>
@@ -5173,8 +5302,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="106"/>
       <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
@@ -5182,8 +5311,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="106" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -5193,8 +5322,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="106"/>
       <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
@@ -5202,8 +5331,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="106"/>
       <c r="B10" s="50" t="s">
         <v>33</v>
       </c>
@@ -5211,26 +5340,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="104" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="105"/>
       <c r="B12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="63"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="C12" s="105"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="106" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -5240,8 +5369,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="106"/>
       <c r="B14" s="50" t="s">
         <v>46</v>
       </c>
@@ -5249,8 +5378,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="106"/>
       <c r="B15" s="50" t="s">
         <v>48</v>
       </c>
@@ -5258,8 +5387,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="106"/>
       <c r="B16" s="50" t="s">
         <v>50</v>
       </c>
@@ -5267,8 +5396,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="106"/>
       <c r="B17" s="50" t="s">
         <v>43</v>
       </c>
@@ -5276,8 +5405,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="106" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -5287,8 +5416,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="106"/>
       <c r="B19" s="50" t="s">
         <v>44</v>
       </c>
@@ -5296,8 +5425,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="106"/>
       <c r="B20" s="50" t="s">
         <v>46</v>
       </c>
@@ -5305,8 +5434,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="106"/>
       <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
@@ -5314,8 +5443,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="106"/>
       <c r="B22" s="50" t="s">
         <v>54</v>
       </c>
@@ -5323,8 +5452,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="106" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -5334,43 +5463,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="106"/>
       <c r="B24" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="106"/>
       <c r="B25" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="106"/>
       <c r="B26" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="106"/>
       <c r="B27" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="23"/>
     </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="106"/>
       <c r="B28" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="106" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="50" t="s">
@@ -5378,42 +5507,42 @@
       </c>
       <c r="C29" s="23"/>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="106"/>
       <c r="B30" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="23"/>
     </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="106"/>
       <c r="B31" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="106"/>
       <c r="B32" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="23"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="106"/>
       <c r="B33" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="106"/>
       <c r="B34" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="23"/>
     </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="50" t="s">
         <v>64</v>
       </c>
@@ -5424,8 +5553,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:3" ht="34.5">
+      <c r="A36" s="106" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -5435,8 +5564,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="106"/>
       <c r="B37" s="50" t="s">
         <v>72</v>
       </c>
@@ -5444,8 +5573,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="106"/>
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
@@ -5455,16 +5584,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190420.xlsx
+++ b/st00.docs/html&css정리.20190420.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -1788,10 +1788,6 @@
   </si>
   <si>
     <t>font-size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-family: "맑은 고딕", Dotum, sans-serif;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1938,6 +1934,10 @@
   </si>
   <si>
     <t>P태그 중에 name 이라는 속성이 있으면.. 이라는 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family: "맑은 고딕", Dotum, sans-serif;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2544,6 +2544,9 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2556,70 +2559,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3397,7 +3397,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3408,7 +3408,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.5">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3437,7 +3437,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="86" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -3490,7 +3490,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="40" t="s">
         <v>112</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="B20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="86" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3516,11 +3516,11 @@
       <c r="B21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="85"/>
       <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -3531,7 +3531,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="45" t="s">
         <v>101</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="86" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="14" t="s">
         <v>96</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="14" t="s">
         <v>97</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="14" t="s">
         <v>126</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="14" t="s">
         <v>98</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="14" t="s">
         <v>99</v>
       </c>
@@ -3614,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>224</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="81" t="s">
         <v>221</v>
@@ -3698,13 +3698,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="88" t="s">
         <v>216</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -3712,9 +3712,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="53" t="s">
         <v>214</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>209</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3799,63 +3799,63 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="90"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="88" t="s">
         <v>199</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="88" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="90"/>
-      <c r="B17" s="86"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="88"/>
     </row>
     <row r="18" spans="1:4" ht="27">
       <c r="A18" s="90"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="88" t="s">
         <v>195</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="88" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="90"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" spans="1:4" ht="27">
       <c r="A20" s="90"/>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="88" t="s">
         <v>191</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="88" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="91"/>
-      <c r="B21" s="86"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="88"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="64"/>
@@ -3946,25 +3946,25 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="88"/>
+      <c r="D32" s="93"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="86"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="53" t="s">
         <v>171</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="86"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="53" t="s">
         <v>169</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="86"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="61" t="s">
         <v>167</v>
       </c>
@@ -3994,13 +3994,13 @@
       <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="86"/>
+      <c r="A37" s="88"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="86"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="57" t="s">
         <v>165</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="86"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="57" t="s">
         <v>164</v>
       </c>
@@ -4016,17 +4016,17 @@
       <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="86"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="53" t="s">
         <v>163</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="86"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="53" t="s">
         <v>162</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="86"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="53" t="s">
         <v>160</v>
       </c>
@@ -4046,13 +4046,13 @@
       <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="86"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
       <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="86"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="57" t="s">
         <v>158</v>
       </c>
@@ -4064,7 +4064,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="86"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="58" t="s">
         <v>155</v>
       </c>
@@ -4076,8 +4076,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="86"/>
-      <c r="B46" s="107" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="82" t="s">
         <v>152</v>
       </c>
       <c r="C46" s="53" t="s">
@@ -4086,8 +4086,8 @@
       <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="86"/>
-      <c r="B47" s="107" t="s">
+      <c r="A47" s="88"/>
+      <c r="B47" s="82" t="s">
         <v>150</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -4173,6 +4173,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A32:A47"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4183,11 +4188,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A32:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4199,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4222,47 +4222,47 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="93" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="96" t="s">
+      <c r="A2" s="104" t="s">
         <v>421</v>
       </c>
+      <c r="B2" s="99" t="s">
+        <v>420</v>
+      </c>
       <c r="C2" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="18" t="s">
         <v>415</v>
       </c>
@@ -4274,8 +4274,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="16" t="s">
         <v>412</v>
       </c>
@@ -4287,8 +4287,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="57">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="16" t="s">
         <v>409</v>
       </c>
@@ -4300,8 +4300,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="94"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="5" t="s">
         <v>406</v>
       </c>
@@ -4311,8 +4311,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="57">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="99" t="s">
         <v>404</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4328,8 +4328,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="19" t="s">
         <v>400</v>
       </c>
@@ -4343,8 +4343,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="94"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="19" t="s">
         <v>397</v>
       </c>
@@ -4358,8 +4358,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="94"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="4" t="s">
         <v>394</v>
       </c>
@@ -4371,8 +4371,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="94"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -4384,8 +4384,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="94"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="19" t="s">
         <v>391</v>
       </c>
@@ -4399,8 +4399,8 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="5" t="s">
         <v>388</v>
       </c>
@@ -4412,8 +4412,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="94"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="18" t="s">
         <v>386</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="5" t="s">
         <v>384</v>
       </c>
@@ -4438,8 +4438,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5">
-      <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
@@ -4451,8 +4451,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="94"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="7" t="s">
         <v>379</v>
       </c>
@@ -4460,8 +4460,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="7" t="s">
         <v>378</v>
       </c>
@@ -4469,8 +4469,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="94"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
@@ -4482,8 +4482,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="94"/>
-      <c r="B22" s="96" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="99" t="s">
         <v>375</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -4497,8 +4497,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5">
-      <c r="A23" s="94"/>
-      <c r="B23" s="96"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="5" t="s">
         <v>371</v>
       </c>
@@ -4510,8 +4510,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="94"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="5" t="s">
         <v>368</v>
       </c>
@@ -4523,8 +4523,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="18" t="s">
         <v>365</v>
       </c>
@@ -4552,10 +4552,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="57">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="103" t="s">
         <v>360</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4569,8 +4569,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="42.75">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="5" t="s">
         <v>356</v>
       </c>
@@ -4582,8 +4582,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="5" t="s">
         <v>353</v>
       </c>
@@ -4593,12 +4593,12 @@
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="101" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="98" t="s">
         <v>350</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -4606,17 +4606,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="5" t="s">
         <v>347</v>
       </c>
@@ -4626,8 +4626,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="5" t="s">
         <v>345</v>
       </c>
@@ -4637,8 +4637,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="5" t="s">
         <v>343</v>
       </c>
@@ -4648,8 +4648,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="5" t="s">
         <v>341</v>
       </c>
@@ -4659,8 +4659,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="18" t="s">
         <v>339</v>
       </c>
@@ -4672,8 +4672,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="5" t="s">
         <v>336</v>
       </c>
@@ -4683,8 +4683,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="5" t="s">
         <v>334</v>
       </c>
@@ -4692,8 +4692,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="18" t="s">
         <v>333</v>
       </c>
@@ -4705,8 +4705,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="18" t="s">
         <v>330</v>
       </c>
@@ -4718,8 +4718,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.5">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="5" t="s">
         <v>327</v>
       </c>
@@ -4729,8 +4729,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="96"/>
-      <c r="B43" s="97" t="s">
+      <c r="A43" s="99"/>
+      <c r="B43" s="103" t="s">
         <v>325</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4742,8 +4742,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="5" t="s">
         <v>322</v>
       </c>
@@ -4753,8 +4753,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="5" t="s">
         <v>320</v>
       </c>
@@ -4764,8 +4764,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="5" t="s">
         <v>318</v>
       </c>
@@ -4775,8 +4775,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="16" t="s">
         <v>316</v>
       </c>
@@ -4786,8 +4786,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="96"/>
-      <c r="B48" s="97" t="s">
+      <c r="A48" s="99"/>
+      <c r="B48" s="103" t="s">
         <v>314</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4799,8 +4799,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -4810,8 +4810,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -4821,8 +4821,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -4832,8 +4832,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="16" t="s">
         <v>309</v>
       </c>
@@ -4843,8 +4843,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96" t="s">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99" t="s">
         <v>307</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -4858,8 +4858,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="16" t="s">
         <v>304</v>
       </c>
@@ -4871,8 +4871,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="5" t="s">
         <v>301</v>
       </c>
@@ -4882,8 +4882,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96" t="s">
+      <c r="A56" s="99"/>
+      <c r="B56" s="99" t="s">
         <v>299</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -4897,8 +4897,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96"/>
-      <c r="B57" s="96"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="16" t="s">
         <v>296</v>
       </c>
@@ -4910,8 +4910,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="96"/>
-      <c r="B58" s="96"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="5" t="s">
         <v>293</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="104" t="s">
         <v>291</v>
       </c>
       <c r="B60" s="70" t="s">
@@ -4945,8 +4945,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="57">
-      <c r="A61" s="94"/>
-      <c r="B61" s="96" t="s">
+      <c r="A61" s="101"/>
+      <c r="B61" s="99" t="s">
         <v>286</v>
       </c>
       <c r="C61" s="18" t="s">
@@ -4960,8 +4960,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="42.75">
-      <c r="A62" s="94"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="99"/>
       <c r="C62" s="5" t="s">
         <v>282</v>
       </c>
@@ -4973,8 +4973,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="94"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="99"/>
       <c r="C63" s="34" t="s">
         <v>279</v>
       </c>
@@ -4986,8 +4986,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="94"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="99"/>
       <c r="C64" s="5" t="s">
         <v>276</v>
       </c>
@@ -4999,8 +4999,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="57">
-      <c r="A65" s="94"/>
-      <c r="B65" s="96"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="99"/>
       <c r="C65" s="34" t="s">
         <v>273</v>
       </c>
@@ -5012,8 +5012,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.5">
-      <c r="A66" s="94"/>
-      <c r="B66" s="96"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="5" t="s">
         <v>270</v>
       </c>
@@ -5023,8 +5023,8 @@
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="42.75">
-      <c r="A67" s="94"/>
-      <c r="B67" s="96"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="99"/>
       <c r="C67" s="5" t="s">
         <v>268</v>
       </c>
@@ -5036,8 +5036,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="94"/>
-      <c r="B68" s="96"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="34" t="s">
         <v>265</v>
       </c>
@@ -5049,8 +5049,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="71.25">
-      <c r="A69" s="95"/>
-      <c r="B69" s="96"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="33" t="s">
         <v>262</v>
       </c>
@@ -5076,10 +5076,10 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="42.75">
-      <c r="A72" s="98" t="s">
+      <c r="A72" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="100" t="s">
         <v>258</v>
       </c>
       <c r="C72" s="34" t="s">
@@ -5091,8 +5091,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="99"/>
-      <c r="B73" s="94"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="34" t="s">
         <v>255</v>
       </c>
@@ -5104,8 +5104,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="99"/>
-      <c r="B74" s="94"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="34" t="s">
         <v>252</v>
       </c>
@@ -5115,8 +5115,8 @@
       <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5" ht="57">
-      <c r="A75" s="99"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="34" t="s">
         <v>250</v>
       </c>
@@ -5128,8 +5128,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="28.5">
-      <c r="A76" s="99"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="4" t="s">
         <v>247</v>
       </c>
@@ -5141,8 +5141,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.5">
-      <c r="A77" s="99"/>
-      <c r="B77" s="94"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="4" t="s">
         <v>244</v>
       </c>
@@ -5152,8 +5152,8 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="57">
-      <c r="A78" s="99"/>
-      <c r="B78" s="94"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="101"/>
       <c r="C78" s="33" t="s">
         <v>242</v>
       </c>
@@ -5165,8 +5165,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="42.75">
-      <c r="A79" s="99"/>
-      <c r="B79" s="94"/>
+      <c r="A79" s="95"/>
+      <c r="B79" s="101"/>
       <c r="C79" s="4" t="s">
         <v>239</v>
       </c>
@@ -5178,8 +5178,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="28.5">
-      <c r="A80" s="99"/>
-      <c r="B80" s="94"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="101"/>
       <c r="C80" s="33" t="s">
         <v>236</v>
       </c>
@@ -5189,8 +5189,8 @@
       <c r="E80" s="34"/>
     </row>
     <row r="81" spans="1:5" ht="57">
-      <c r="A81" s="100"/>
-      <c r="B81" s="95"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="102"/>
       <c r="C81" s="4" t="s">
         <v>234</v>
       </c>
@@ -5203,6 +5203,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5212,13 +5219,6 @@
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="A60:A69"/>
     <mergeCell ref="B61:B69"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5254,7 +5254,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -5265,7 +5265,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="106"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="50" t="s">
         <v>21</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="105" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="50" t="s">
@@ -5285,7 +5285,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="106"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5294,7 +5294,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="106"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="50" t="s">
         <v>29</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="106"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -5323,7 +5323,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="50" t="s">
         <v>36</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="106"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="50" t="s">
         <v>33</v>
       </c>
@@ -5341,25 +5341,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="106" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="106" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="105"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="107"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="105" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -5370,7 +5370,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="50" t="s">
         <v>46</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="50" t="s">
         <v>48</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="106"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="50" t="s">
         <v>50</v>
       </c>
@@ -5397,7 +5397,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="106"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="50" t="s">
         <v>43</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="105" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -5417,7 +5417,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="106"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="50" t="s">
         <v>44</v>
       </c>
@@ -5426,7 +5426,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="106"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="50" t="s">
         <v>46</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="106"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="50" t="s">
         <v>48</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="106"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="50" t="s">
         <v>54</v>
       </c>
@@ -5453,7 +5453,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="105" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -5464,42 +5464,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="106"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="106"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="106"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="106"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="105" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="50" t="s">
@@ -5508,35 +5508,35 @@
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="106"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="106"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="106"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="106"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="50" t="s">
         <v>43</v>
       </c>
@@ -5547,14 +5547,14 @@
         <v>64</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="105" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -5565,7 +5565,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="106"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="50" t="s">
         <v>72</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="106"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
@@ -5584,16 +5584,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
